--- a/src/Archivos/cuentaOriginal.xlsx
+++ b/src/Archivos/cuentaOriginal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\soporte\Documents\NetBeansProjects\Formato Cuenta Cobro\src\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancastellon/Documents/proyecto universidad/cuentasDeCobro/src/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C7AA9-78A8-004F-B5FD-C818858CDCC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$C$2:$W$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$C$2:$W$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -161,10 +162,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -562,7 +563,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="127">
@@ -598,7 +599,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -721,6 +722,213 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -749,220 +957,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -990,15 +991,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>230188</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="2 Imagen" descr="nuevo logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1038,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1112,6 +1113,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1147,6 +1165,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1322,1461 +1357,1461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:T52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60:P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="4" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
-    <col min="25" max="249" width="11.42578125" style="1"/>
-    <col min="250" max="250" width="1.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" style="1" customWidth="1"/>
+    <col min="25" max="249" width="11.5" style="1"/>
+    <col min="250" max="250" width="1.1640625" style="1" customWidth="1"/>
     <col min="251" max="252" width="3" style="1" customWidth="1"/>
-    <col min="253" max="253" width="11.85546875" style="1" customWidth="1"/>
-    <col min="254" max="254" width="4.5703125" style="1" customWidth="1"/>
-    <col min="255" max="255" width="8.28515625" style="1" customWidth="1"/>
-    <col min="256" max="256" width="3.85546875" style="1" customWidth="1"/>
-    <col min="257" max="257" width="7.85546875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="3.7109375" style="1" customWidth="1"/>
-    <col min="259" max="259" width="3.140625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="1.28515625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="2.42578125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.7109375" style="1" customWidth="1"/>
-    <col min="263" max="263" width="4.140625" style="1" customWidth="1"/>
-    <col min="264" max="264" width="6.42578125" style="1" customWidth="1"/>
-    <col min="265" max="265" width="4.140625" style="1" customWidth="1"/>
-    <col min="266" max="266" width="3.7109375" style="1" customWidth="1"/>
-    <col min="267" max="267" width="3.5703125" style="1" customWidth="1"/>
-    <col min="268" max="268" width="9.28515625" style="1" customWidth="1"/>
-    <col min="269" max="269" width="3.5703125" style="1" customWidth="1"/>
-    <col min="270" max="270" width="1.140625" style="1" customWidth="1"/>
-    <col min="271" max="505" width="11.42578125" style="1"/>
-    <col min="506" max="506" width="1.140625" style="1" customWidth="1"/>
+    <col min="253" max="253" width="11.83203125" style="1" customWidth="1"/>
+    <col min="254" max="254" width="4.5" style="1" customWidth="1"/>
+    <col min="255" max="255" width="8.33203125" style="1" customWidth="1"/>
+    <col min="256" max="256" width="3.83203125" style="1" customWidth="1"/>
+    <col min="257" max="257" width="7.83203125" style="1" customWidth="1"/>
+    <col min="258" max="258" width="3.6640625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="3.1640625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="1.33203125" style="1" customWidth="1"/>
+    <col min="261" max="261" width="2.5" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.6640625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="4.1640625" style="1" customWidth="1"/>
+    <col min="264" max="264" width="6.5" style="1" customWidth="1"/>
+    <col min="265" max="265" width="4.1640625" style="1" customWidth="1"/>
+    <col min="266" max="266" width="3.6640625" style="1" customWidth="1"/>
+    <col min="267" max="267" width="3.5" style="1" customWidth="1"/>
+    <col min="268" max="268" width="9.33203125" style="1" customWidth="1"/>
+    <col min="269" max="269" width="3.5" style="1" customWidth="1"/>
+    <col min="270" max="270" width="1.1640625" style="1" customWidth="1"/>
+    <col min="271" max="505" width="11.5" style="1"/>
+    <col min="506" max="506" width="1.1640625" style="1" customWidth="1"/>
     <col min="507" max="508" width="3" style="1" customWidth="1"/>
-    <col min="509" max="509" width="11.85546875" style="1" customWidth="1"/>
-    <col min="510" max="510" width="4.5703125" style="1" customWidth="1"/>
-    <col min="511" max="511" width="8.28515625" style="1" customWidth="1"/>
-    <col min="512" max="512" width="3.85546875" style="1" customWidth="1"/>
-    <col min="513" max="513" width="7.85546875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="3.7109375" style="1" customWidth="1"/>
-    <col min="515" max="515" width="3.140625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="1.28515625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="2.42578125" style="1" customWidth="1"/>
-    <col min="518" max="518" width="5.7109375" style="1" customWidth="1"/>
-    <col min="519" max="519" width="4.140625" style="1" customWidth="1"/>
-    <col min="520" max="520" width="6.42578125" style="1" customWidth="1"/>
-    <col min="521" max="521" width="4.140625" style="1" customWidth="1"/>
-    <col min="522" max="522" width="3.7109375" style="1" customWidth="1"/>
-    <col min="523" max="523" width="3.5703125" style="1" customWidth="1"/>
-    <col min="524" max="524" width="9.28515625" style="1" customWidth="1"/>
-    <col min="525" max="525" width="3.5703125" style="1" customWidth="1"/>
-    <col min="526" max="526" width="1.140625" style="1" customWidth="1"/>
-    <col min="527" max="761" width="11.42578125" style="1"/>
-    <col min="762" max="762" width="1.140625" style="1" customWidth="1"/>
+    <col min="509" max="509" width="11.83203125" style="1" customWidth="1"/>
+    <col min="510" max="510" width="4.5" style="1" customWidth="1"/>
+    <col min="511" max="511" width="8.33203125" style="1" customWidth="1"/>
+    <col min="512" max="512" width="3.83203125" style="1" customWidth="1"/>
+    <col min="513" max="513" width="7.83203125" style="1" customWidth="1"/>
+    <col min="514" max="514" width="3.6640625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="3.1640625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="1.33203125" style="1" customWidth="1"/>
+    <col min="517" max="517" width="2.5" style="1" customWidth="1"/>
+    <col min="518" max="518" width="5.6640625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="4.1640625" style="1" customWidth="1"/>
+    <col min="520" max="520" width="6.5" style="1" customWidth="1"/>
+    <col min="521" max="521" width="4.1640625" style="1" customWidth="1"/>
+    <col min="522" max="522" width="3.6640625" style="1" customWidth="1"/>
+    <col min="523" max="523" width="3.5" style="1" customWidth="1"/>
+    <col min="524" max="524" width="9.33203125" style="1" customWidth="1"/>
+    <col min="525" max="525" width="3.5" style="1" customWidth="1"/>
+    <col min="526" max="526" width="1.1640625" style="1" customWidth="1"/>
+    <col min="527" max="761" width="11.5" style="1"/>
+    <col min="762" max="762" width="1.1640625" style="1" customWidth="1"/>
     <col min="763" max="764" width="3" style="1" customWidth="1"/>
-    <col min="765" max="765" width="11.85546875" style="1" customWidth="1"/>
-    <col min="766" max="766" width="4.5703125" style="1" customWidth="1"/>
-    <col min="767" max="767" width="8.28515625" style="1" customWidth="1"/>
-    <col min="768" max="768" width="3.85546875" style="1" customWidth="1"/>
-    <col min="769" max="769" width="7.85546875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="3.7109375" style="1" customWidth="1"/>
-    <col min="771" max="771" width="3.140625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="1.28515625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="2.42578125" style="1" customWidth="1"/>
-    <col min="774" max="774" width="5.7109375" style="1" customWidth="1"/>
-    <col min="775" max="775" width="4.140625" style="1" customWidth="1"/>
-    <col min="776" max="776" width="6.42578125" style="1" customWidth="1"/>
-    <col min="777" max="777" width="4.140625" style="1" customWidth="1"/>
-    <col min="778" max="778" width="3.7109375" style="1" customWidth="1"/>
-    <col min="779" max="779" width="3.5703125" style="1" customWidth="1"/>
-    <col min="780" max="780" width="9.28515625" style="1" customWidth="1"/>
-    <col min="781" max="781" width="3.5703125" style="1" customWidth="1"/>
-    <col min="782" max="782" width="1.140625" style="1" customWidth="1"/>
-    <col min="783" max="1017" width="11.42578125" style="1"/>
-    <col min="1018" max="1018" width="1.140625" style="1" customWidth="1"/>
+    <col min="765" max="765" width="11.83203125" style="1" customWidth="1"/>
+    <col min="766" max="766" width="4.5" style="1" customWidth="1"/>
+    <col min="767" max="767" width="8.33203125" style="1" customWidth="1"/>
+    <col min="768" max="768" width="3.83203125" style="1" customWidth="1"/>
+    <col min="769" max="769" width="7.83203125" style="1" customWidth="1"/>
+    <col min="770" max="770" width="3.6640625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="3.1640625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="1.33203125" style="1" customWidth="1"/>
+    <col min="773" max="773" width="2.5" style="1" customWidth="1"/>
+    <col min="774" max="774" width="5.6640625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="4.1640625" style="1" customWidth="1"/>
+    <col min="776" max="776" width="6.5" style="1" customWidth="1"/>
+    <col min="777" max="777" width="4.1640625" style="1" customWidth="1"/>
+    <col min="778" max="778" width="3.6640625" style="1" customWidth="1"/>
+    <col min="779" max="779" width="3.5" style="1" customWidth="1"/>
+    <col min="780" max="780" width="9.33203125" style="1" customWidth="1"/>
+    <col min="781" max="781" width="3.5" style="1" customWidth="1"/>
+    <col min="782" max="782" width="1.1640625" style="1" customWidth="1"/>
+    <col min="783" max="1017" width="11.5" style="1"/>
+    <col min="1018" max="1018" width="1.1640625" style="1" customWidth="1"/>
     <col min="1019" max="1020" width="3" style="1" customWidth="1"/>
-    <col min="1021" max="1021" width="11.85546875" style="1" customWidth="1"/>
-    <col min="1022" max="1022" width="4.5703125" style="1" customWidth="1"/>
-    <col min="1023" max="1023" width="8.28515625" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="3.85546875" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="7.85546875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="3.140625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="1.28515625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="5.7109375" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.140625" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="6.42578125" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="4.140625" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1036" max="1036" width="9.28515625" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="1.140625" style="1" customWidth="1"/>
-    <col min="1039" max="1273" width="11.42578125" style="1"/>
-    <col min="1274" max="1274" width="1.140625" style="1" customWidth="1"/>
+    <col min="1021" max="1021" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1022" max="1022" width="4.5" style="1" customWidth="1"/>
+    <col min="1023" max="1023" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="7.83203125" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="2.5" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="6.5" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="3.5" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="3.5" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="1.1640625" style="1" customWidth="1"/>
+    <col min="1039" max="1273" width="11.5" style="1"/>
+    <col min="1274" max="1274" width="1.1640625" style="1" customWidth="1"/>
     <col min="1275" max="1276" width="3" style="1" customWidth="1"/>
-    <col min="1277" max="1277" width="11.85546875" style="1" customWidth="1"/>
-    <col min="1278" max="1278" width="4.5703125" style="1" customWidth="1"/>
-    <col min="1279" max="1279" width="8.28515625" style="1" customWidth="1"/>
-    <col min="1280" max="1280" width="3.85546875" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="7.85546875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="3.140625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="1.28515625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="5.7109375" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.140625" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="6.42578125" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="4.140625" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1292" max="1292" width="9.28515625" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="1.140625" style="1" customWidth="1"/>
-    <col min="1295" max="1529" width="11.42578125" style="1"/>
-    <col min="1530" max="1530" width="1.140625" style="1" customWidth="1"/>
+    <col min="1277" max="1277" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1278" max="1278" width="4.5" style="1" customWidth="1"/>
+    <col min="1279" max="1279" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="7.83203125" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="2.5" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="6.5" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="3.5" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="3.5" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="1.1640625" style="1" customWidth="1"/>
+    <col min="1295" max="1529" width="11.5" style="1"/>
+    <col min="1530" max="1530" width="1.1640625" style="1" customWidth="1"/>
     <col min="1531" max="1532" width="3" style="1" customWidth="1"/>
-    <col min="1533" max="1533" width="11.85546875" style="1" customWidth="1"/>
-    <col min="1534" max="1534" width="4.5703125" style="1" customWidth="1"/>
-    <col min="1535" max="1535" width="8.28515625" style="1" customWidth="1"/>
-    <col min="1536" max="1536" width="3.85546875" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="7.85546875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="3.140625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="1.28515625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="5.7109375" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.140625" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="6.42578125" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="4.140625" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1548" max="1548" width="9.28515625" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="1.140625" style="1" customWidth="1"/>
-    <col min="1551" max="1785" width="11.42578125" style="1"/>
-    <col min="1786" max="1786" width="1.140625" style="1" customWidth="1"/>
+    <col min="1533" max="1533" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1534" max="1534" width="4.5" style="1" customWidth="1"/>
+    <col min="1535" max="1535" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="7.83203125" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="2.5" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="6.5" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="3.5" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="3.5" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="1.1640625" style="1" customWidth="1"/>
+    <col min="1551" max="1785" width="11.5" style="1"/>
+    <col min="1786" max="1786" width="1.1640625" style="1" customWidth="1"/>
     <col min="1787" max="1788" width="3" style="1" customWidth="1"/>
-    <col min="1789" max="1789" width="11.85546875" style="1" customWidth="1"/>
-    <col min="1790" max="1790" width="4.5703125" style="1" customWidth="1"/>
-    <col min="1791" max="1791" width="8.28515625" style="1" customWidth="1"/>
-    <col min="1792" max="1792" width="3.85546875" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="7.85546875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="3.140625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="1.28515625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="5.7109375" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.140625" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="6.42578125" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="4.140625" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1804" max="1804" width="9.28515625" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="3.5703125" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="1.140625" style="1" customWidth="1"/>
-    <col min="1807" max="2041" width="11.42578125" style="1"/>
-    <col min="2042" max="2042" width="1.140625" style="1" customWidth="1"/>
+    <col min="1789" max="1789" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1790" max="1790" width="4.5" style="1" customWidth="1"/>
+    <col min="1791" max="1791" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="7.83203125" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="2.5" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="6.5" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="3.5" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="3.5" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="1.1640625" style="1" customWidth="1"/>
+    <col min="1807" max="2041" width="11.5" style="1"/>
+    <col min="2042" max="2042" width="1.1640625" style="1" customWidth="1"/>
     <col min="2043" max="2044" width="3" style="1" customWidth="1"/>
-    <col min="2045" max="2045" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2046" max="2046" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2047" max="2047" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2048" max="2048" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="3.140625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.140625" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="4.140625" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2060" max="2060" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="1.140625" style="1" customWidth="1"/>
-    <col min="2063" max="2297" width="11.42578125" style="1"/>
-    <col min="2298" max="2298" width="1.140625" style="1" customWidth="1"/>
+    <col min="2045" max="2045" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2046" max="2046" width="4.5" style="1" customWidth="1"/>
+    <col min="2047" max="2047" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="2.5" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="6.5" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="3.5" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="3.5" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2063" max="2297" width="11.5" style="1"/>
+    <col min="2298" max="2298" width="1.1640625" style="1" customWidth="1"/>
     <col min="2299" max="2300" width="3" style="1" customWidth="1"/>
-    <col min="2301" max="2301" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2302" max="2302" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2303" max="2303" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2304" max="2304" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="3.140625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.140625" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="4.140625" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2316" max="2316" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="1.140625" style="1" customWidth="1"/>
-    <col min="2319" max="2553" width="11.42578125" style="1"/>
-    <col min="2554" max="2554" width="1.140625" style="1" customWidth="1"/>
+    <col min="2301" max="2301" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2302" max="2302" width="4.5" style="1" customWidth="1"/>
+    <col min="2303" max="2303" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="2.5" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="6.5" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="3.5" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="3.5" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2319" max="2553" width="11.5" style="1"/>
+    <col min="2554" max="2554" width="1.1640625" style="1" customWidth="1"/>
     <col min="2555" max="2556" width="3" style="1" customWidth="1"/>
-    <col min="2557" max="2557" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2558" max="2558" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2559" max="2559" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2560" max="2560" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="3.140625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.140625" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="4.140625" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2572" max="2572" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="1.140625" style="1" customWidth="1"/>
-    <col min="2575" max="2809" width="11.42578125" style="1"/>
-    <col min="2810" max="2810" width="1.140625" style="1" customWidth="1"/>
+    <col min="2557" max="2557" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2558" max="2558" width="4.5" style="1" customWidth="1"/>
+    <col min="2559" max="2559" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="2.5" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="6.5" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="3.5" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="3.5" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2575" max="2809" width="11.5" style="1"/>
+    <col min="2810" max="2810" width="1.1640625" style="1" customWidth="1"/>
     <col min="2811" max="2812" width="3" style="1" customWidth="1"/>
-    <col min="2813" max="2813" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2814" max="2814" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2815" max="2815" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2816" max="2816" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="3.140625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.140625" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="4.140625" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2828" max="2828" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="1.140625" style="1" customWidth="1"/>
-    <col min="2831" max="3065" width="11.42578125" style="1"/>
-    <col min="3066" max="3066" width="1.140625" style="1" customWidth="1"/>
+    <col min="2813" max="2813" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2814" max="2814" width="4.5" style="1" customWidth="1"/>
+    <col min="2815" max="2815" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="2.5" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="6.5" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="3.5" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="3.5" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2831" max="3065" width="11.5" style="1"/>
+    <col min="3066" max="3066" width="1.1640625" style="1" customWidth="1"/>
     <col min="3067" max="3068" width="3" style="1" customWidth="1"/>
-    <col min="3069" max="3069" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3070" max="3070" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3071" max="3071" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3072" max="3072" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="3.140625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="1.28515625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.140625" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="4.140625" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3084" max="3084" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="1.140625" style="1" customWidth="1"/>
-    <col min="3087" max="3321" width="11.42578125" style="1"/>
-    <col min="3322" max="3322" width="1.140625" style="1" customWidth="1"/>
+    <col min="3069" max="3069" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3070" max="3070" width="4.5" style="1" customWidth="1"/>
+    <col min="3071" max="3071" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="2.5" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="6.5" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="3.5" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="3.5" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="1.1640625" style="1" customWidth="1"/>
+    <col min="3087" max="3321" width="11.5" style="1"/>
+    <col min="3322" max="3322" width="1.1640625" style="1" customWidth="1"/>
     <col min="3323" max="3324" width="3" style="1" customWidth="1"/>
-    <col min="3325" max="3325" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3326" max="3326" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3327" max="3327" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3328" max="3328" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="3.140625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="1.28515625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.140625" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="4.140625" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3340" max="3340" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="1.140625" style="1" customWidth="1"/>
-    <col min="3343" max="3577" width="11.42578125" style="1"/>
-    <col min="3578" max="3578" width="1.140625" style="1" customWidth="1"/>
+    <col min="3325" max="3325" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3326" max="3326" width="4.5" style="1" customWidth="1"/>
+    <col min="3327" max="3327" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="2.5" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="6.5" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="3.5" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="3.5" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="1.1640625" style="1" customWidth="1"/>
+    <col min="3343" max="3577" width="11.5" style="1"/>
+    <col min="3578" max="3578" width="1.1640625" style="1" customWidth="1"/>
     <col min="3579" max="3580" width="3" style="1" customWidth="1"/>
-    <col min="3581" max="3581" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3582" max="3582" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3583" max="3583" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3584" max="3584" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="3.140625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="1.28515625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.140625" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="4.140625" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3596" max="3596" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="1.140625" style="1" customWidth="1"/>
-    <col min="3599" max="3833" width="11.42578125" style="1"/>
-    <col min="3834" max="3834" width="1.140625" style="1" customWidth="1"/>
+    <col min="3581" max="3581" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3582" max="3582" width="4.5" style="1" customWidth="1"/>
+    <col min="3583" max="3583" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="2.5" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="6.5" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="3.5" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="3.5" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="1.1640625" style="1" customWidth="1"/>
+    <col min="3599" max="3833" width="11.5" style="1"/>
+    <col min="3834" max="3834" width="1.1640625" style="1" customWidth="1"/>
     <col min="3835" max="3836" width="3" style="1" customWidth="1"/>
-    <col min="3837" max="3837" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3838" max="3838" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3839" max="3839" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3840" max="3840" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="3.140625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="1.28515625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.140625" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="4.140625" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3852" max="3852" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="1.140625" style="1" customWidth="1"/>
-    <col min="3855" max="4089" width="11.42578125" style="1"/>
-    <col min="4090" max="4090" width="1.140625" style="1" customWidth="1"/>
+    <col min="3837" max="3837" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3838" max="3838" width="4.5" style="1" customWidth="1"/>
+    <col min="3839" max="3839" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="2.5" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="6.5" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="3.5" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="3.5" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="1.1640625" style="1" customWidth="1"/>
+    <col min="3855" max="4089" width="11.5" style="1"/>
+    <col min="4090" max="4090" width="1.1640625" style="1" customWidth="1"/>
     <col min="4091" max="4092" width="3" style="1" customWidth="1"/>
-    <col min="4093" max="4093" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4094" max="4094" width="4.5703125" style="1" customWidth="1"/>
-    <col min="4095" max="4095" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4096" max="4096" width="3.85546875" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="3.140625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="1.28515625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.140625" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="4.140625" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4108" max="4108" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="1.140625" style="1" customWidth="1"/>
-    <col min="4111" max="4345" width="11.42578125" style="1"/>
-    <col min="4346" max="4346" width="1.140625" style="1" customWidth="1"/>
+    <col min="4093" max="4093" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4094" max="4094" width="4.5" style="1" customWidth="1"/>
+    <col min="4095" max="4095" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="3.83203125" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="2.5" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="6.5" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="3.5" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="3.5" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4111" max="4345" width="11.5" style="1"/>
+    <col min="4346" max="4346" width="1.1640625" style="1" customWidth="1"/>
     <col min="4347" max="4348" width="3" style="1" customWidth="1"/>
-    <col min="4349" max="4349" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4350" max="4350" width="4.5703125" style="1" customWidth="1"/>
-    <col min="4351" max="4351" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4352" max="4352" width="3.85546875" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="3.140625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="1.28515625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.140625" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="4.140625" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4364" max="4364" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="1.140625" style="1" customWidth="1"/>
-    <col min="4367" max="4601" width="11.42578125" style="1"/>
-    <col min="4602" max="4602" width="1.140625" style="1" customWidth="1"/>
+    <col min="4349" max="4349" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4350" max="4350" width="4.5" style="1" customWidth="1"/>
+    <col min="4351" max="4351" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="3.83203125" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="2.5" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="6.5" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="3.5" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="3.5" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4367" max="4601" width="11.5" style="1"/>
+    <col min="4602" max="4602" width="1.1640625" style="1" customWidth="1"/>
     <col min="4603" max="4604" width="3" style="1" customWidth="1"/>
-    <col min="4605" max="4605" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4606" max="4606" width="4.5703125" style="1" customWidth="1"/>
-    <col min="4607" max="4607" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4608" max="4608" width="3.85546875" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="3.140625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="1.28515625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.140625" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="4.140625" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4620" max="4620" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="1.140625" style="1" customWidth="1"/>
-    <col min="4623" max="4857" width="11.42578125" style="1"/>
-    <col min="4858" max="4858" width="1.140625" style="1" customWidth="1"/>
+    <col min="4605" max="4605" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4606" max="4606" width="4.5" style="1" customWidth="1"/>
+    <col min="4607" max="4607" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="3.83203125" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="2.5" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="6.5" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="3.5" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="3.5" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4623" max="4857" width="11.5" style="1"/>
+    <col min="4858" max="4858" width="1.1640625" style="1" customWidth="1"/>
     <col min="4859" max="4860" width="3" style="1" customWidth="1"/>
-    <col min="4861" max="4861" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4862" max="4862" width="4.5703125" style="1" customWidth="1"/>
-    <col min="4863" max="4863" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4864" max="4864" width="3.85546875" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="3.140625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="1.28515625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.140625" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="4.140625" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4876" max="4876" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="1.140625" style="1" customWidth="1"/>
-    <col min="4879" max="5113" width="11.42578125" style="1"/>
-    <col min="5114" max="5114" width="1.140625" style="1" customWidth="1"/>
+    <col min="4861" max="4861" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4862" max="4862" width="4.5" style="1" customWidth="1"/>
+    <col min="4863" max="4863" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="3.83203125" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="7.83203125" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="2.5" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="6.5" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="3.5" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="3.5" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="1.1640625" style="1" customWidth="1"/>
+    <col min="4879" max="5113" width="11.5" style="1"/>
+    <col min="5114" max="5114" width="1.1640625" style="1" customWidth="1"/>
     <col min="5115" max="5116" width="3" style="1" customWidth="1"/>
-    <col min="5117" max="5117" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5118" max="5118" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5119" max="5119" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5120" max="5120" width="3.85546875" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="3.140625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="1.28515625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.140625" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="4.140625" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5132" max="5132" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="1.140625" style="1" customWidth="1"/>
-    <col min="5135" max="5369" width="11.42578125" style="1"/>
-    <col min="5370" max="5370" width="1.140625" style="1" customWidth="1"/>
+    <col min="5117" max="5117" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5118" max="5118" width="4.5" style="1" customWidth="1"/>
+    <col min="5119" max="5119" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="3.83203125" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="3.1640625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="2.5" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="6.5" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="3.5" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="3.5" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="1.1640625" style="1" customWidth="1"/>
+    <col min="5135" max="5369" width="11.5" style="1"/>
+    <col min="5370" max="5370" width="1.1640625" style="1" customWidth="1"/>
     <col min="5371" max="5372" width="3" style="1" customWidth="1"/>
-    <col min="5373" max="5373" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5374" max="5374" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5375" max="5375" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5376" max="5376" width="3.85546875" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="3.140625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="1.28515625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.140625" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="4.140625" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5388" max="5388" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="1.140625" style="1" customWidth="1"/>
-    <col min="5391" max="5625" width="11.42578125" style="1"/>
-    <col min="5626" max="5626" width="1.140625" style="1" customWidth="1"/>
+    <col min="5373" max="5373" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5374" max="5374" width="4.5" style="1" customWidth="1"/>
+    <col min="5375" max="5375" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="3.83203125" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="3.1640625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="2.5" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="6.5" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="3.5" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="3.5" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="1.1640625" style="1" customWidth="1"/>
+    <col min="5391" max="5625" width="11.5" style="1"/>
+    <col min="5626" max="5626" width="1.1640625" style="1" customWidth="1"/>
     <col min="5627" max="5628" width="3" style="1" customWidth="1"/>
-    <col min="5629" max="5629" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5630" max="5630" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5631" max="5631" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5632" max="5632" width="3.85546875" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="3.140625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="1.28515625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.140625" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="4.140625" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5644" max="5644" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="1.140625" style="1" customWidth="1"/>
-    <col min="5647" max="5881" width="11.42578125" style="1"/>
-    <col min="5882" max="5882" width="1.140625" style="1" customWidth="1"/>
+    <col min="5629" max="5629" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5630" max="5630" width="4.5" style="1" customWidth="1"/>
+    <col min="5631" max="5631" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="3.83203125" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="3.1640625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="2.5" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="6.5" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="3.5" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="3.5" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="1.1640625" style="1" customWidth="1"/>
+    <col min="5647" max="5881" width="11.5" style="1"/>
+    <col min="5882" max="5882" width="1.1640625" style="1" customWidth="1"/>
     <col min="5883" max="5884" width="3" style="1" customWidth="1"/>
-    <col min="5885" max="5885" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5886" max="5886" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5887" max="5887" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5888" max="5888" width="3.85546875" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="3.140625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="1.28515625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.140625" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="4.140625" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5900" max="5900" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="1.140625" style="1" customWidth="1"/>
-    <col min="5903" max="6137" width="11.42578125" style="1"/>
-    <col min="6138" max="6138" width="1.140625" style="1" customWidth="1"/>
+    <col min="5885" max="5885" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5886" max="5886" width="4.5" style="1" customWidth="1"/>
+    <col min="5887" max="5887" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="3.83203125" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="3.1640625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="2.5" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="6.5" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="3.5" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="3.5" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="1.1640625" style="1" customWidth="1"/>
+    <col min="5903" max="6137" width="11.5" style="1"/>
+    <col min="6138" max="6138" width="1.1640625" style="1" customWidth="1"/>
     <col min="6139" max="6140" width="3" style="1" customWidth="1"/>
-    <col min="6141" max="6141" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6142" max="6142" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6143" max="6143" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6144" max="6144" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="3.140625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="1.28515625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.140625" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="4.140625" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6156" max="6156" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="1.140625" style="1" customWidth="1"/>
-    <col min="6159" max="6393" width="11.42578125" style="1"/>
-    <col min="6394" max="6394" width="1.140625" style="1" customWidth="1"/>
+    <col min="6141" max="6141" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6142" max="6142" width="4.5" style="1" customWidth="1"/>
+    <col min="6143" max="6143" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="3.83203125" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="3.1640625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="2.5" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="6.5" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="3.5" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="3.5" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6159" max="6393" width="11.5" style="1"/>
+    <col min="6394" max="6394" width="1.1640625" style="1" customWidth="1"/>
     <col min="6395" max="6396" width="3" style="1" customWidth="1"/>
-    <col min="6397" max="6397" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6398" max="6398" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6399" max="6399" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6400" max="6400" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="3.140625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="1.28515625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.140625" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="4.140625" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6412" max="6412" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="1.140625" style="1" customWidth="1"/>
-    <col min="6415" max="6649" width="11.42578125" style="1"/>
-    <col min="6650" max="6650" width="1.140625" style="1" customWidth="1"/>
+    <col min="6397" max="6397" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6398" max="6398" width="4.5" style="1" customWidth="1"/>
+    <col min="6399" max="6399" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="3.83203125" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="3.1640625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="2.5" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="6.5" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="3.5" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="3.5" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6415" max="6649" width="11.5" style="1"/>
+    <col min="6650" max="6650" width="1.1640625" style="1" customWidth="1"/>
     <col min="6651" max="6652" width="3" style="1" customWidth="1"/>
-    <col min="6653" max="6653" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6654" max="6654" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6655" max="6655" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6656" max="6656" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="3.140625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="1.28515625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.140625" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="4.140625" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6668" max="6668" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="1.140625" style="1" customWidth="1"/>
-    <col min="6671" max="6905" width="11.42578125" style="1"/>
-    <col min="6906" max="6906" width="1.140625" style="1" customWidth="1"/>
+    <col min="6653" max="6653" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6654" max="6654" width="4.5" style="1" customWidth="1"/>
+    <col min="6655" max="6655" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="3.83203125" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="3.1640625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="2.5" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="6.5" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="3.5" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="3.5" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6671" max="6905" width="11.5" style="1"/>
+    <col min="6906" max="6906" width="1.1640625" style="1" customWidth="1"/>
     <col min="6907" max="6908" width="3" style="1" customWidth="1"/>
-    <col min="6909" max="6909" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6910" max="6910" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6911" max="6911" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6912" max="6912" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="7.85546875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="3.140625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="1.28515625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.140625" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="4.140625" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6924" max="6924" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="3.5703125" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="1.140625" style="1" customWidth="1"/>
-    <col min="6927" max="7161" width="11.42578125" style="1"/>
-    <col min="7162" max="7162" width="1.140625" style="1" customWidth="1"/>
+    <col min="6909" max="6909" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6910" max="6910" width="4.5" style="1" customWidth="1"/>
+    <col min="6911" max="6911" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="3.83203125" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="7.83203125" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="3.1640625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="2.5" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="6.5" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="3.5" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="3.5" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="1.1640625" style="1" customWidth="1"/>
+    <col min="6927" max="7161" width="11.5" style="1"/>
+    <col min="7162" max="7162" width="1.1640625" style="1" customWidth="1"/>
     <col min="7163" max="7164" width="3" style="1" customWidth="1"/>
-    <col min="7165" max="7165" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7166" max="7166" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7167" max="7167" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7168" max="7168" width="3.85546875" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="3.140625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.140625" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="4.140625" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7180" max="7180" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="1.140625" style="1" customWidth="1"/>
-    <col min="7183" max="7417" width="11.42578125" style="1"/>
-    <col min="7418" max="7418" width="1.140625" style="1" customWidth="1"/>
+    <col min="7165" max="7165" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7166" max="7166" width="4.5" style="1" customWidth="1"/>
+    <col min="7167" max="7167" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="3.1640625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="2.5" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="6.5" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="3.5" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="3.5" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="1.1640625" style="1" customWidth="1"/>
+    <col min="7183" max="7417" width="11.5" style="1"/>
+    <col min="7418" max="7418" width="1.1640625" style="1" customWidth="1"/>
     <col min="7419" max="7420" width="3" style="1" customWidth="1"/>
-    <col min="7421" max="7421" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7422" max="7422" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7423" max="7423" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7424" max="7424" width="3.85546875" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="3.140625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.140625" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="4.140625" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7436" max="7436" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="1.140625" style="1" customWidth="1"/>
-    <col min="7439" max="7673" width="11.42578125" style="1"/>
-    <col min="7674" max="7674" width="1.140625" style="1" customWidth="1"/>
+    <col min="7421" max="7421" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7422" max="7422" width="4.5" style="1" customWidth="1"/>
+    <col min="7423" max="7423" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="3.1640625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="2.5" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="6.5" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="3.5" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="3.5" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="1.1640625" style="1" customWidth="1"/>
+    <col min="7439" max="7673" width="11.5" style="1"/>
+    <col min="7674" max="7674" width="1.1640625" style="1" customWidth="1"/>
     <col min="7675" max="7676" width="3" style="1" customWidth="1"/>
-    <col min="7677" max="7677" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7678" max="7678" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7679" max="7679" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7680" max="7680" width="3.85546875" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="3.140625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.140625" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="4.140625" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7692" max="7692" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="1.140625" style="1" customWidth="1"/>
-    <col min="7695" max="7929" width="11.42578125" style="1"/>
-    <col min="7930" max="7930" width="1.140625" style="1" customWidth="1"/>
+    <col min="7677" max="7677" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7678" max="7678" width="4.5" style="1" customWidth="1"/>
+    <col min="7679" max="7679" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="3.1640625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="2.5" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="6.5" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="3.5" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="3.5" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="1.1640625" style="1" customWidth="1"/>
+    <col min="7695" max="7929" width="11.5" style="1"/>
+    <col min="7930" max="7930" width="1.1640625" style="1" customWidth="1"/>
     <col min="7931" max="7932" width="3" style="1" customWidth="1"/>
-    <col min="7933" max="7933" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7934" max="7934" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7935" max="7935" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7936" max="7936" width="3.85546875" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="3.140625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.140625" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="6.42578125" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="4.140625" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7948" max="7948" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="3.5703125" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="1.140625" style="1" customWidth="1"/>
-    <col min="7951" max="8185" width="11.42578125" style="1"/>
-    <col min="8186" max="8186" width="1.140625" style="1" customWidth="1"/>
+    <col min="7933" max="7933" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7934" max="7934" width="4.5" style="1" customWidth="1"/>
+    <col min="7935" max="7935" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="3.1640625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="2.5" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="6.5" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="3.5" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="3.5" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="1.1640625" style="1" customWidth="1"/>
+    <col min="7951" max="8185" width="11.5" style="1"/>
+    <col min="8186" max="8186" width="1.1640625" style="1" customWidth="1"/>
     <col min="8187" max="8188" width="3" style="1" customWidth="1"/>
-    <col min="8189" max="8189" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8190" max="8190" width="4.5703125" style="1" customWidth="1"/>
-    <col min="8191" max="8191" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8192" max="8192" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="3.140625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.140625" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="4.140625" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8204" max="8204" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="1.140625" style="1" customWidth="1"/>
-    <col min="8207" max="8441" width="11.42578125" style="1"/>
-    <col min="8442" max="8442" width="1.140625" style="1" customWidth="1"/>
+    <col min="8189" max="8189" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8190" max="8190" width="4.5" style="1" customWidth="1"/>
+    <col min="8191" max="8191" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="7.83203125" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="3.1640625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="2.5" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="6.5" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="3.5" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="3.5" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="1.1640625" style="1" customWidth="1"/>
+    <col min="8207" max="8441" width="11.5" style="1"/>
+    <col min="8442" max="8442" width="1.1640625" style="1" customWidth="1"/>
     <col min="8443" max="8444" width="3" style="1" customWidth="1"/>
-    <col min="8445" max="8445" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8446" max="8446" width="4.5703125" style="1" customWidth="1"/>
-    <col min="8447" max="8447" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8448" max="8448" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="3.140625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.140625" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="4.140625" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8460" max="8460" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="1.140625" style="1" customWidth="1"/>
-    <col min="8463" max="8697" width="11.42578125" style="1"/>
-    <col min="8698" max="8698" width="1.140625" style="1" customWidth="1"/>
+    <col min="8445" max="8445" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8446" max="8446" width="4.5" style="1" customWidth="1"/>
+    <col min="8447" max="8447" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="7.83203125" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="3.1640625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="2.5" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="6.5" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="3.5" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="3.5" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="1.1640625" style="1" customWidth="1"/>
+    <col min="8463" max="8697" width="11.5" style="1"/>
+    <col min="8698" max="8698" width="1.1640625" style="1" customWidth="1"/>
     <col min="8699" max="8700" width="3" style="1" customWidth="1"/>
-    <col min="8701" max="8701" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8702" max="8702" width="4.5703125" style="1" customWidth="1"/>
-    <col min="8703" max="8703" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8704" max="8704" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="3.140625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.140625" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="4.140625" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8716" max="8716" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="1.140625" style="1" customWidth="1"/>
-    <col min="8719" max="8953" width="11.42578125" style="1"/>
-    <col min="8954" max="8954" width="1.140625" style="1" customWidth="1"/>
+    <col min="8701" max="8701" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8702" max="8702" width="4.5" style="1" customWidth="1"/>
+    <col min="8703" max="8703" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="7.83203125" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="3.1640625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="2.5" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="6.5" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="3.5" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="3.5" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="1.1640625" style="1" customWidth="1"/>
+    <col min="8719" max="8953" width="11.5" style="1"/>
+    <col min="8954" max="8954" width="1.1640625" style="1" customWidth="1"/>
     <col min="8955" max="8956" width="3" style="1" customWidth="1"/>
-    <col min="8957" max="8957" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8958" max="8958" width="4.5703125" style="1" customWidth="1"/>
-    <col min="8959" max="8959" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8960" max="8960" width="3.85546875" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="3.140625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.140625" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="4.140625" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8972" max="8972" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="1.140625" style="1" customWidth="1"/>
-    <col min="8975" max="9209" width="11.42578125" style="1"/>
-    <col min="9210" max="9210" width="1.140625" style="1" customWidth="1"/>
+    <col min="8957" max="8957" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8958" max="8958" width="4.5" style="1" customWidth="1"/>
+    <col min="8959" max="8959" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="7.83203125" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="3.1640625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="2.5" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="6.5" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="3.5" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="3.5" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="1.1640625" style="1" customWidth="1"/>
+    <col min="8975" max="9209" width="11.5" style="1"/>
+    <col min="9210" max="9210" width="1.1640625" style="1" customWidth="1"/>
     <col min="9211" max="9212" width="3" style="1" customWidth="1"/>
-    <col min="9213" max="9213" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9214" max="9214" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9215" max="9215" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9216" max="9216" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="3.140625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="1.28515625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.140625" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="6.42578125" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="4.140625" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9228" max="9228" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="1.140625" style="1" customWidth="1"/>
-    <col min="9231" max="9465" width="11.42578125" style="1"/>
-    <col min="9466" max="9466" width="1.140625" style="1" customWidth="1"/>
+    <col min="9213" max="9213" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9214" max="9214" width="4.5" style="1" customWidth="1"/>
+    <col min="9215" max="9215" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="3.83203125" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="2.5" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="6.5" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="3.5" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="3.5" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="1.1640625" style="1" customWidth="1"/>
+    <col min="9231" max="9465" width="11.5" style="1"/>
+    <col min="9466" max="9466" width="1.1640625" style="1" customWidth="1"/>
     <col min="9467" max="9468" width="3" style="1" customWidth="1"/>
-    <col min="9469" max="9469" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9470" max="9470" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9471" max="9471" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9472" max="9472" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="3.140625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="1.28515625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.140625" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="6.42578125" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="4.140625" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9484" max="9484" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="1.140625" style="1" customWidth="1"/>
-    <col min="9487" max="9721" width="11.42578125" style="1"/>
-    <col min="9722" max="9722" width="1.140625" style="1" customWidth="1"/>
+    <col min="9469" max="9469" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9470" max="9470" width="4.5" style="1" customWidth="1"/>
+    <col min="9471" max="9471" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="3.83203125" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="2.5" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="6.5" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="3.5" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="3.5" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="1.1640625" style="1" customWidth="1"/>
+    <col min="9487" max="9721" width="11.5" style="1"/>
+    <col min="9722" max="9722" width="1.1640625" style="1" customWidth="1"/>
     <col min="9723" max="9724" width="3" style="1" customWidth="1"/>
-    <col min="9725" max="9725" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9726" max="9726" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9727" max="9727" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9728" max="9728" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="3.140625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="1.28515625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.140625" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="6.42578125" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="4.140625" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9740" max="9740" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="1.140625" style="1" customWidth="1"/>
-    <col min="9743" max="9977" width="11.42578125" style="1"/>
-    <col min="9978" max="9978" width="1.140625" style="1" customWidth="1"/>
+    <col min="9725" max="9725" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9726" max="9726" width="4.5" style="1" customWidth="1"/>
+    <col min="9727" max="9727" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="3.83203125" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="2.5" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="6.5" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="3.5" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="3.5" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="1.1640625" style="1" customWidth="1"/>
+    <col min="9743" max="9977" width="11.5" style="1"/>
+    <col min="9978" max="9978" width="1.1640625" style="1" customWidth="1"/>
     <col min="9979" max="9980" width="3" style="1" customWidth="1"/>
-    <col min="9981" max="9981" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9982" max="9982" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9983" max="9983" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9984" max="9984" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="3.140625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="1.28515625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.140625" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="6.42578125" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="4.140625" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9996" max="9996" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="1.140625" style="1" customWidth="1"/>
-    <col min="9999" max="10233" width="11.42578125" style="1"/>
-    <col min="10234" max="10234" width="1.140625" style="1" customWidth="1"/>
+    <col min="9981" max="9981" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9982" max="9982" width="4.5" style="1" customWidth="1"/>
+    <col min="9983" max="9983" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="3.83203125" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="3.1640625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="2.5" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="6.5" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="3.5" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="3.5" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="1.1640625" style="1" customWidth="1"/>
+    <col min="9999" max="10233" width="11.5" style="1"/>
+    <col min="10234" max="10234" width="1.1640625" style="1" customWidth="1"/>
     <col min="10235" max="10236" width="3" style="1" customWidth="1"/>
-    <col min="10237" max="10237" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10238" max="10238" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10239" max="10239" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10240" max="10240" width="3.85546875" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="3.140625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="1.28515625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.140625" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="4.140625" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10252" max="10252" width="9.28515625" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="1.140625" style="1" customWidth="1"/>
-    <col min="10255" max="10489" width="11.42578125" style="1"/>
-    <col min="10490" max="10490" width="1.140625" style="1" customWidth="1"/>
+    <col min="10237" max="10237" width="11.83203125" style="1" customWidth="1"/>
+    <col min="10238" max="10238" width="4.5" style="1" customWidth="1"/>
+    <col min="10239" max="10239" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="3.83203125" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="7.83203125" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="3.1640625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="2.5" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="6.5" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="3.5" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="3.5" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="1.1640625" style="1" customWidth="1"/>
+    <col min="10255" max="10489" width="11.5" style="1"/>
+    <col min="10490" max="10490" width="1.1640625" style="1" customWidth="1"/>
     <col min="10491" max="10492" width="3" style="1" customWidth="1"/>
-    <col min="10493" max="10493" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10494" max="10494" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10495" max="10495" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10496" max="10496" width="3.85546875" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="3.140625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="1.28515625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.140625" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="4.140625" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10508" max="10508" width="9.28515625" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="1.140625" style="1" customWidth="1"/>
-    <col min="10511" max="10745" width="11.42578125" style="1"/>
-    <col min="10746" max="10746" width="1.140625" style="1" customWidth="1"/>
+    <col min="10493" max="10493" width="11.83203125" style="1" customWidth="1"/>
+    <col min="10494" max="10494" width="4.5" style="1" customWidth="1"/>
+    <col min="10495" max="10495" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="3.83203125" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="7.83203125" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="3.1640625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="2.5" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="6.5" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="3.5" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="3.5" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="1.1640625" style="1" customWidth="1"/>
+    <col min="10511" max="10745" width="11.5" style="1"/>
+    <col min="10746" max="10746" width="1.1640625" style="1" customWidth="1"/>
     <col min="10747" max="10748" width="3" style="1" customWidth="1"/>
-    <col min="10749" max="10749" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10750" max="10750" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10751" max="10751" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10752" max="10752" width="3.85546875" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="3.140625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="1.28515625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.140625" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="4.140625" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10764" max="10764" width="9.28515625" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="3.5703125" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="1.140625" style="1" customWidth="1"/>
-    <col min="10767" max="11001" width="11.42578125" style="1"/>
-    <col min="11002" max="11002" width="1.140625" style="1" customWidth="1"/>
+    <col min="10749" max="10749" width="11.83203125" style="1" customWidth="1"/>
+    <col min="10750" max="10750" width="4.5" style="1" customWidth="1"/>
+    <col min="10751" max="10751" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="3.83203125" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="7.83203125" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="3.1640625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="2.5" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="6.5" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="3.5" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="3.5" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="1.1640625" style="1" customWidth="1"/>
+    <col min="10767" max="11001" width="11.5" style="1"/>
+    <col min="11002" max="11002" width="1.1640625" style="1" customWidth="1"/>
     <col min="11003" max="11004" width="3" style="1" customWidth="1"/>
-    <col min="11005" max="11005" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11006" max="11006" width="4.5703125" style="1" customWidth="1"/>
-    <col min="11007" max="11007" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11008" max="11008" width="3.85546875" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="3.140625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="1.28515625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.140625" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="4.140625" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11020" max="11020" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="1.140625" style="1" customWidth="1"/>
-    <col min="11023" max="11257" width="11.42578125" style="1"/>
-    <col min="11258" max="11258" width="1.140625" style="1" customWidth="1"/>
+    <col min="11005" max="11005" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11006" max="11006" width="4.5" style="1" customWidth="1"/>
+    <col min="11007" max="11007" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="3.1640625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="2.5" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="6.5" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="3.5" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="3.5" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11023" max="11257" width="11.5" style="1"/>
+    <col min="11258" max="11258" width="1.1640625" style="1" customWidth="1"/>
     <col min="11259" max="11260" width="3" style="1" customWidth="1"/>
-    <col min="11261" max="11261" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11262" max="11262" width="4.5703125" style="1" customWidth="1"/>
-    <col min="11263" max="11263" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11264" max="11264" width="3.85546875" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="3.140625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="1.28515625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.140625" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="4.140625" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11276" max="11276" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="1.140625" style="1" customWidth="1"/>
-    <col min="11279" max="11513" width="11.42578125" style="1"/>
-    <col min="11514" max="11514" width="1.140625" style="1" customWidth="1"/>
+    <col min="11261" max="11261" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11262" max="11262" width="4.5" style="1" customWidth="1"/>
+    <col min="11263" max="11263" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="3.1640625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="2.5" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="6.5" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="3.5" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="3.5" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11279" max="11513" width="11.5" style="1"/>
+    <col min="11514" max="11514" width="1.1640625" style="1" customWidth="1"/>
     <col min="11515" max="11516" width="3" style="1" customWidth="1"/>
-    <col min="11517" max="11517" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11518" max="11518" width="4.5703125" style="1" customWidth="1"/>
-    <col min="11519" max="11519" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11520" max="11520" width="3.85546875" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="3.140625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="1.28515625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.140625" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="4.140625" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11532" max="11532" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="1.140625" style="1" customWidth="1"/>
-    <col min="11535" max="11769" width="11.42578125" style="1"/>
-    <col min="11770" max="11770" width="1.140625" style="1" customWidth="1"/>
+    <col min="11517" max="11517" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11518" max="11518" width="4.5" style="1" customWidth="1"/>
+    <col min="11519" max="11519" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="3.1640625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="2.5" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="6.5" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="3.5" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="3.5" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11535" max="11769" width="11.5" style="1"/>
+    <col min="11770" max="11770" width="1.1640625" style="1" customWidth="1"/>
     <col min="11771" max="11772" width="3" style="1" customWidth="1"/>
-    <col min="11773" max="11773" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11774" max="11774" width="4.5703125" style="1" customWidth="1"/>
-    <col min="11775" max="11775" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11776" max="11776" width="3.85546875" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="3.140625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="1.28515625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.140625" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="4.140625" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11788" max="11788" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="1.140625" style="1" customWidth="1"/>
-    <col min="11791" max="12025" width="11.42578125" style="1"/>
-    <col min="12026" max="12026" width="1.140625" style="1" customWidth="1"/>
+    <col min="11773" max="11773" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11774" max="11774" width="4.5" style="1" customWidth="1"/>
+    <col min="11775" max="11775" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="3.83203125" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="3.1640625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="2.5" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="6.5" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="4.1640625" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="3.5" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="3.5" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11791" max="12025" width="11.5" style="1"/>
+    <col min="12026" max="12026" width="1.1640625" style="1" customWidth="1"/>
     <col min="12027" max="12028" width="3" style="1" customWidth="1"/>
-    <col min="12029" max="12029" width="11.85546875" style="1" customWidth="1"/>
-    <col min="12030" max="12030" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12031" max="12031" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12032" max="12032" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="3.140625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="1.28515625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.140625" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="4.140625" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12044" max="12044" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="1.140625" style="1" customWidth="1"/>
-    <col min="12047" max="12281" width="11.42578125" style="1"/>
-    <col min="12282" max="12282" width="1.140625" style="1" customWidth="1"/>
+    <col min="12029" max="12029" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12030" max="12030" width="4.5" style="1" customWidth="1"/>
+    <col min="12031" max="12031" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="3.83203125" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="3.1640625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="2.5" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="6.5" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="3.5" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="3.5" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="1.1640625" style="1" customWidth="1"/>
+    <col min="12047" max="12281" width="11.5" style="1"/>
+    <col min="12282" max="12282" width="1.1640625" style="1" customWidth="1"/>
     <col min="12283" max="12284" width="3" style="1" customWidth="1"/>
-    <col min="12285" max="12285" width="11.85546875" style="1" customWidth="1"/>
-    <col min="12286" max="12286" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12287" max="12287" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12288" max="12288" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="3.140625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="1.28515625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.140625" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="4.140625" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12300" max="12300" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="1.140625" style="1" customWidth="1"/>
-    <col min="12303" max="12537" width="11.42578125" style="1"/>
-    <col min="12538" max="12538" width="1.140625" style="1" customWidth="1"/>
+    <col min="12285" max="12285" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12286" max="12286" width="4.5" style="1" customWidth="1"/>
+    <col min="12287" max="12287" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="3.83203125" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="3.1640625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="2.5" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="6.5" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="3.5" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="3.5" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="1.1640625" style="1" customWidth="1"/>
+    <col min="12303" max="12537" width="11.5" style="1"/>
+    <col min="12538" max="12538" width="1.1640625" style="1" customWidth="1"/>
     <col min="12539" max="12540" width="3" style="1" customWidth="1"/>
-    <col min="12541" max="12541" width="11.85546875" style="1" customWidth="1"/>
-    <col min="12542" max="12542" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12543" max="12543" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12544" max="12544" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="3.140625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="1.28515625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.140625" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="4.140625" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12556" max="12556" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="1.140625" style="1" customWidth="1"/>
-    <col min="12559" max="12793" width="11.42578125" style="1"/>
-    <col min="12794" max="12794" width="1.140625" style="1" customWidth="1"/>
+    <col min="12541" max="12541" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12542" max="12542" width="4.5" style="1" customWidth="1"/>
+    <col min="12543" max="12543" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="3.83203125" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="3.1640625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="2.5" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="6.5" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="3.5" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="3.5" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="1.1640625" style="1" customWidth="1"/>
+    <col min="12559" max="12793" width="11.5" style="1"/>
+    <col min="12794" max="12794" width="1.1640625" style="1" customWidth="1"/>
     <col min="12795" max="12796" width="3" style="1" customWidth="1"/>
-    <col min="12797" max="12797" width="11.85546875" style="1" customWidth="1"/>
-    <col min="12798" max="12798" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12799" max="12799" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12800" max="12800" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="3.140625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="1.28515625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.140625" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="4.140625" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12812" max="12812" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="3.5703125" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="1.140625" style="1" customWidth="1"/>
-    <col min="12815" max="13049" width="11.42578125" style="1"/>
-    <col min="13050" max="13050" width="1.140625" style="1" customWidth="1"/>
+    <col min="12797" max="12797" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12798" max="12798" width="4.5" style="1" customWidth="1"/>
+    <col min="12799" max="12799" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="3.83203125" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="3.1640625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="2.5" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="6.5" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="3.5" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="3.5" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="1.1640625" style="1" customWidth="1"/>
+    <col min="12815" max="13049" width="11.5" style="1"/>
+    <col min="13050" max="13050" width="1.1640625" style="1" customWidth="1"/>
     <col min="13051" max="13052" width="3" style="1" customWidth="1"/>
-    <col min="13053" max="13053" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13054" max="13054" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13055" max="13055" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13056" max="13056" width="3.85546875" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="3.140625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="1.28515625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.140625" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="6.42578125" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="4.140625" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13068" max="13068" width="9.28515625" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="1.140625" style="1" customWidth="1"/>
-    <col min="13071" max="13305" width="11.42578125" style="1"/>
-    <col min="13306" max="13306" width="1.140625" style="1" customWidth="1"/>
+    <col min="13053" max="13053" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13054" max="13054" width="4.5" style="1" customWidth="1"/>
+    <col min="13055" max="13055" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="3.83203125" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="3.1640625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="2.5" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="6.5" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="3.5" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="3.5" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="1.1640625" style="1" customWidth="1"/>
+    <col min="13071" max="13305" width="11.5" style="1"/>
+    <col min="13306" max="13306" width="1.1640625" style="1" customWidth="1"/>
     <col min="13307" max="13308" width="3" style="1" customWidth="1"/>
-    <col min="13309" max="13309" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13310" max="13310" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13311" max="13311" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13312" max="13312" width="3.85546875" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="3.140625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="1.28515625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.140625" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="6.42578125" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="4.140625" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13324" max="13324" width="9.28515625" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="1.140625" style="1" customWidth="1"/>
-    <col min="13327" max="13561" width="11.42578125" style="1"/>
-    <col min="13562" max="13562" width="1.140625" style="1" customWidth="1"/>
+    <col min="13309" max="13309" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13310" max="13310" width="4.5" style="1" customWidth="1"/>
+    <col min="13311" max="13311" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="3.83203125" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="3.1640625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="2.5" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="6.5" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="3.5" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="3.5" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="1.1640625" style="1" customWidth="1"/>
+    <col min="13327" max="13561" width="11.5" style="1"/>
+    <col min="13562" max="13562" width="1.1640625" style="1" customWidth="1"/>
     <col min="13563" max="13564" width="3" style="1" customWidth="1"/>
-    <col min="13565" max="13565" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13566" max="13566" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13567" max="13567" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13568" max="13568" width="3.85546875" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="3.140625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="1.28515625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.140625" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="6.42578125" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="4.140625" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13580" max="13580" width="9.28515625" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="1.140625" style="1" customWidth="1"/>
-    <col min="13583" max="13817" width="11.42578125" style="1"/>
-    <col min="13818" max="13818" width="1.140625" style="1" customWidth="1"/>
+    <col min="13565" max="13565" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13566" max="13566" width="4.5" style="1" customWidth="1"/>
+    <col min="13567" max="13567" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="3.83203125" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="3.1640625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="2.5" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="6.5" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="3.5" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="3.5" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="1.1640625" style="1" customWidth="1"/>
+    <col min="13583" max="13817" width="11.5" style="1"/>
+    <col min="13818" max="13818" width="1.1640625" style="1" customWidth="1"/>
     <col min="13819" max="13820" width="3" style="1" customWidth="1"/>
-    <col min="13821" max="13821" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13822" max="13822" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13823" max="13823" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13824" max="13824" width="3.85546875" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="3.140625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="1.28515625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.140625" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="6.42578125" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="4.140625" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13836" max="13836" width="9.28515625" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="3.5703125" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="1.140625" style="1" customWidth="1"/>
-    <col min="13839" max="14073" width="11.42578125" style="1"/>
-    <col min="14074" max="14074" width="1.140625" style="1" customWidth="1"/>
+    <col min="13821" max="13821" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13822" max="13822" width="4.5" style="1" customWidth="1"/>
+    <col min="13823" max="13823" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="3.83203125" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="3.1640625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="2.5" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="6.5" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="4.1640625" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="3.5" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="3.5" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="1.1640625" style="1" customWidth="1"/>
+    <col min="13839" max="14073" width="11.5" style="1"/>
+    <col min="14074" max="14074" width="1.1640625" style="1" customWidth="1"/>
     <col min="14075" max="14076" width="3" style="1" customWidth="1"/>
-    <col min="14077" max="14077" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14078" max="14078" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14079" max="14079" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14080" max="14080" width="3.85546875" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="3.140625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="1.28515625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.140625" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="4.140625" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14092" max="14092" width="9.28515625" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="1.140625" style="1" customWidth="1"/>
-    <col min="14095" max="14329" width="11.42578125" style="1"/>
-    <col min="14330" max="14330" width="1.140625" style="1" customWidth="1"/>
+    <col min="14077" max="14077" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14078" max="14078" width="4.5" style="1" customWidth="1"/>
+    <col min="14079" max="14079" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="3.83203125" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="3.1640625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="2.5" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="6.5" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="3.5" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="3.5" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="1.1640625" style="1" customWidth="1"/>
+    <col min="14095" max="14329" width="11.5" style="1"/>
+    <col min="14330" max="14330" width="1.1640625" style="1" customWidth="1"/>
     <col min="14331" max="14332" width="3" style="1" customWidth="1"/>
-    <col min="14333" max="14333" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14334" max="14334" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14335" max="14335" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14336" max="14336" width="3.85546875" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="3.140625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="1.28515625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.140625" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="4.140625" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14348" max="14348" width="9.28515625" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="1.140625" style="1" customWidth="1"/>
-    <col min="14351" max="14585" width="11.42578125" style="1"/>
-    <col min="14586" max="14586" width="1.140625" style="1" customWidth="1"/>
+    <col min="14333" max="14333" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14334" max="14334" width="4.5" style="1" customWidth="1"/>
+    <col min="14335" max="14335" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="3.83203125" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="3.1640625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="2.5" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="6.5" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="3.5" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="3.5" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="1.1640625" style="1" customWidth="1"/>
+    <col min="14351" max="14585" width="11.5" style="1"/>
+    <col min="14586" max="14586" width="1.1640625" style="1" customWidth="1"/>
     <col min="14587" max="14588" width="3" style="1" customWidth="1"/>
-    <col min="14589" max="14589" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14590" max="14590" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14591" max="14591" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14592" max="14592" width="3.85546875" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="3.140625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="1.28515625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.140625" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="4.140625" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14604" max="14604" width="9.28515625" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="1.140625" style="1" customWidth="1"/>
-    <col min="14607" max="14841" width="11.42578125" style="1"/>
-    <col min="14842" max="14842" width="1.140625" style="1" customWidth="1"/>
+    <col min="14589" max="14589" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14590" max="14590" width="4.5" style="1" customWidth="1"/>
+    <col min="14591" max="14591" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="3.83203125" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="3.1640625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="2.5" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="6.5" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="3.5" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="3.5" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="1.1640625" style="1" customWidth="1"/>
+    <col min="14607" max="14841" width="11.5" style="1"/>
+    <col min="14842" max="14842" width="1.1640625" style="1" customWidth="1"/>
     <col min="14843" max="14844" width="3" style="1" customWidth="1"/>
-    <col min="14845" max="14845" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14846" max="14846" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14847" max="14847" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14848" max="14848" width="3.85546875" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="3.140625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="1.28515625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.140625" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="4.140625" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14860" max="14860" width="9.28515625" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="1.140625" style="1" customWidth="1"/>
-    <col min="14863" max="15097" width="11.42578125" style="1"/>
-    <col min="15098" max="15098" width="1.140625" style="1" customWidth="1"/>
+    <col min="14845" max="14845" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14846" max="14846" width="4.5" style="1" customWidth="1"/>
+    <col min="14847" max="14847" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="3.83203125" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="3.1640625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="2.5" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="6.5" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="4.1640625" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="3.5" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="3.5" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="1.1640625" style="1" customWidth="1"/>
+    <col min="14863" max="15097" width="11.5" style="1"/>
+    <col min="15098" max="15098" width="1.1640625" style="1" customWidth="1"/>
     <col min="15099" max="15100" width="3" style="1" customWidth="1"/>
-    <col min="15101" max="15101" width="11.85546875" style="1" customWidth="1"/>
-    <col min="15102" max="15102" width="4.5703125" style="1" customWidth="1"/>
-    <col min="15103" max="15103" width="8.28515625" style="1" customWidth="1"/>
-    <col min="15104" max="15104" width="3.85546875" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="3.140625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="1.28515625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="5.7109375" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.140625" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="4.140625" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15116" max="15116" width="9.28515625" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="1.140625" style="1" customWidth="1"/>
-    <col min="15119" max="15353" width="11.42578125" style="1"/>
-    <col min="15354" max="15354" width="1.140625" style="1" customWidth="1"/>
+    <col min="15101" max="15101" width="11.83203125" style="1" customWidth="1"/>
+    <col min="15102" max="15102" width="4.5" style="1" customWidth="1"/>
+    <col min="15103" max="15103" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="3.83203125" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="3.1640625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="2.5" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="6.5" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="3.5" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="3.5" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="1.1640625" style="1" customWidth="1"/>
+    <col min="15119" max="15353" width="11.5" style="1"/>
+    <col min="15354" max="15354" width="1.1640625" style="1" customWidth="1"/>
     <col min="15355" max="15356" width="3" style="1" customWidth="1"/>
-    <col min="15357" max="15357" width="11.85546875" style="1" customWidth="1"/>
-    <col min="15358" max="15358" width="4.5703125" style="1" customWidth="1"/>
-    <col min="15359" max="15359" width="8.28515625" style="1" customWidth="1"/>
-    <col min="15360" max="15360" width="3.85546875" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="3.140625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="1.28515625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="5.7109375" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.140625" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="4.140625" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15372" max="15372" width="9.28515625" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="1.140625" style="1" customWidth="1"/>
-    <col min="15375" max="15609" width="11.42578125" style="1"/>
-    <col min="15610" max="15610" width="1.140625" style="1" customWidth="1"/>
+    <col min="15357" max="15357" width="11.83203125" style="1" customWidth="1"/>
+    <col min="15358" max="15358" width="4.5" style="1" customWidth="1"/>
+    <col min="15359" max="15359" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="3.83203125" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="3.1640625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="2.5" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="6.5" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="3.5" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="3.5" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="1.1640625" style="1" customWidth="1"/>
+    <col min="15375" max="15609" width="11.5" style="1"/>
+    <col min="15610" max="15610" width="1.1640625" style="1" customWidth="1"/>
     <col min="15611" max="15612" width="3" style="1" customWidth="1"/>
-    <col min="15613" max="15613" width="11.85546875" style="1" customWidth="1"/>
-    <col min="15614" max="15614" width="4.5703125" style="1" customWidth="1"/>
-    <col min="15615" max="15615" width="8.28515625" style="1" customWidth="1"/>
-    <col min="15616" max="15616" width="3.85546875" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="3.140625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="1.28515625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="5.7109375" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.140625" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="4.140625" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15628" max="15628" width="9.28515625" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="1.140625" style="1" customWidth="1"/>
-    <col min="15631" max="15865" width="11.42578125" style="1"/>
-    <col min="15866" max="15866" width="1.140625" style="1" customWidth="1"/>
+    <col min="15613" max="15613" width="11.83203125" style="1" customWidth="1"/>
+    <col min="15614" max="15614" width="4.5" style="1" customWidth="1"/>
+    <col min="15615" max="15615" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="3.83203125" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="3.1640625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="2.5" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="6.5" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="3.5" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="3.5" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="1.1640625" style="1" customWidth="1"/>
+    <col min="15631" max="15865" width="11.5" style="1"/>
+    <col min="15866" max="15866" width="1.1640625" style="1" customWidth="1"/>
     <col min="15867" max="15868" width="3" style="1" customWidth="1"/>
-    <col min="15869" max="15869" width="11.85546875" style="1" customWidth="1"/>
-    <col min="15870" max="15870" width="4.5703125" style="1" customWidth="1"/>
-    <col min="15871" max="15871" width="8.28515625" style="1" customWidth="1"/>
-    <col min="15872" max="15872" width="3.85546875" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="3.140625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="1.28515625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="5.7109375" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.140625" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="4.140625" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15884" max="15884" width="9.28515625" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="3.5703125" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="1.140625" style="1" customWidth="1"/>
-    <col min="15887" max="16121" width="11.42578125" style="1"/>
-    <col min="16122" max="16122" width="1.140625" style="1" customWidth="1"/>
+    <col min="15869" max="15869" width="11.83203125" style="1" customWidth="1"/>
+    <col min="15870" max="15870" width="4.5" style="1" customWidth="1"/>
+    <col min="15871" max="15871" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="3.83203125" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="3.1640625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="2.5" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="6.5" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="3.5" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.33203125" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="3.5" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="1.1640625" style="1" customWidth="1"/>
+    <col min="15887" max="16121" width="11.5" style="1"/>
+    <col min="16122" max="16122" width="1.1640625" style="1" customWidth="1"/>
     <col min="16123" max="16124" width="3" style="1" customWidth="1"/>
-    <col min="16125" max="16125" width="11.85546875" style="1" customWidth="1"/>
-    <col min="16126" max="16126" width="4.5703125" style="1" customWidth="1"/>
-    <col min="16127" max="16127" width="8.28515625" style="1" customWidth="1"/>
-    <col min="16128" max="16128" width="3.85546875" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="7.85546875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="3.140625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="1.28515625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="2.42578125" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="5.7109375" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.140625" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="6.42578125" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="4.140625" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="3.5703125" style="1" customWidth="1"/>
-    <col min="16140" max="16140" width="9.28515625" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="3.5703125" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="1.140625" style="1" customWidth="1"/>
-    <col min="16143" max="16384" width="11.42578125" style="1"/>
+    <col min="16125" max="16125" width="11.83203125" style="1" customWidth="1"/>
+    <col min="16126" max="16126" width="4.5" style="1" customWidth="1"/>
+    <col min="16127" max="16127" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="3.83203125" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="7.83203125" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="3.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="3.1640625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="2.5" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.1640625" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="6.5" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="4.1640625" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="3.6640625" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="3.5" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.33203125" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="3.5" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="1.1640625" style="1" customWidth="1"/>
+    <col min="16143" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="65" t="s">
+    <row r="1" spans="3:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="71" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="80" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-    </row>
-    <row r="3" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="83" t="s">
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+    </row>
+    <row r="3" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="85"/>
-    </row>
-    <row r="4" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="86" t="s">
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="114"/>
+    </row>
+    <row r="4" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="88"/>
-    </row>
-    <row r="5" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="117"/>
+    </row>
+    <row r="5" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="108"/>
       <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2820,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="32"/>
     </row>
-    <row r="6" spans="3:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="33"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2810,7 +2845,7 @@
       <c r="V6" s="89"/>
       <c r="W6" s="36"/>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="33"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2835,7 +2870,7 @@
       <c r="V7" s="30"/>
       <c r="W7" s="36"/>
     </row>
-    <row r="8" spans="3:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="33"/>
       <c r="D8" s="90" t="s">
         <v>26</v>
@@ -2860,32 +2895,32 @@
       <c r="V8" s="90"/>
       <c r="W8" s="36"/>
     </row>
-    <row r="9" spans="3:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="33"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="36"/>
     </row>
-    <row r="10" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2908,32 +2943,32 @@
       <c r="V10" s="30"/>
       <c r="W10" s="36"/>
     </row>
-    <row r="11" spans="3:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="33"/>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="36"/>
     </row>
-    <row r="12" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2956,13 +2991,13 @@
       <c r="V12" s="7"/>
       <c r="W12" s="38"/>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="33"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="5"/>
       <c r="H13" s="91"/>
       <c r="I13" s="92"/>
@@ -2981,7 +3016,7 @@
       <c r="V13" s="93"/>
       <c r="W13" s="36"/>
     </row>
-    <row r="14" spans="3:33" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:33" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3004,19 +3039,19 @@
       <c r="V14" s="18"/>
       <c r="W14" s="36"/>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="33"/>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -3029,7 +3064,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="36"/>
     </row>
-    <row r="16" spans="3:33" s="16" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:33" s="16" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="39"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -3064,32 +3099,32 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="33"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="36"/>
     </row>
-    <row r="18" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="39"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -3112,32 +3147,32 @@
       <c r="V18" s="30"/>
       <c r="W18" s="36"/>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="33"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
       <c r="W19" s="36"/>
     </row>
-    <row r="20" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="39"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -3162,32 +3197,32 @@
       <c r="V20" s="19"/>
       <c r="W20" s="36"/>
     </row>
-    <row r="21" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="40"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
       <c r="W21" s="36"/>
     </row>
-    <row r="22" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="41"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3210,10 +3245,10 @@
       <c r="V22" s="8"/>
       <c r="W22" s="42"/>
     </row>
-    <row r="23" spans="3:23" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:23" ht="25" x14ac:dyDescent="0.2">
       <c r="C23" s="33"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3233,30 +3268,30 @@
       <c r="V23" s="5"/>
       <c r="W23" s="36"/>
     </row>
-    <row r="24" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="33"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
       <c r="W24" s="36"/>
     </row>
-    <row r="25" spans="3:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="37"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3279,76 +3314,76 @@
       <c r="V25" s="7"/>
       <c r="W25" s="38"/>
     </row>
-    <row r="26" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="33"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
       <c r="W26" s="36"/>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="33"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
       <c r="W27" s="36"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="33"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
       <c r="W28" s="36"/>
     </row>
-    <row r="29" spans="3:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="41"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -3371,7 +3406,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="37"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -3394,32 +3429,32 @@
       <c r="V30" s="7"/>
       <c r="W30" s="38"/>
     </row>
-    <row r="31" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="33"/>
       <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
       <c r="W31" s="36"/>
     </row>
-    <row r="32" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="33"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3442,14 +3477,14 @@
       <c r="V32" s="30"/>
       <c r="W32" s="36"/>
     </row>
-    <row r="33" spans="3:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:33" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="33"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="99" t="s">
+      <c r="F33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="100"/>
+      <c r="G33" s="76"/>
       <c r="H33" s="54" t="s">
         <v>11</v>
       </c>
@@ -3457,17 +3492,17 @@
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
-      <c r="M33" s="97" t="s">
+      <c r="M33" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98" t="s">
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -3483,24 +3518,24 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="3:33" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:33" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="33"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="104"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="26"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="30"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="107"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="85"/>
       <c r="T34" s="21"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
@@ -3516,24 +3551,24 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="3:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:33" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="33"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="104"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="28"/>
       <c r="I35" s="20"/>
       <c r="J35" s="51"/>
       <c r="K35" s="20"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="110"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="88"/>
       <c r="T35" s="22"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -3549,24 +3584,24 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="3:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:33" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="33"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="104"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="26"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="30"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="100"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="22"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -3582,24 +3617,24 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="3:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:33" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="33"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="104"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="28"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="100"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="76"/>
       <c r="T37" s="23"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -3615,7 +3650,7 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="3:33" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:33" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="33"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -3648,7 +3683,7 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="33"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -3657,21 +3692,21 @@
       <c r="F39" s="52"/>
       <c r="G39" s="5"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="95" t="s">
+      <c r="I39" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="95"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="124" t="s">
+      <c r="L39" s="55" t="s">
         <v>14</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="30"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -3687,7 +3722,7 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="3:33" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:33" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="33"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3720,7 +3755,7 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="33"/>
       <c r="D41" s="5"/>
       <c r="E41" s="29"/>
@@ -3732,12 +3767,12 @@
       <c r="I41" s="29"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="122"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="67"/>
       <c r="R41" s="30"/>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
@@ -3755,7 +3790,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="33"/>
       <c r="D42" s="5"/>
       <c r="E42" s="29"/>
@@ -3767,12 +3802,12 @@
       <c r="I42" s="29"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="122"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="67"/>
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
@@ -3790,7 +3825,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:33" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="33"/>
       <c r="D43" s="5"/>
       <c r="E43" s="29"/>
@@ -3802,12 +3837,12 @@
       <c r="I43" s="29"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="122"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="67"/>
       <c r="R43" s="30"/>
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
@@ -3825,7 +3860,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="3:33" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:33" s="4" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="41"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3858,7 +3893,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="41"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3881,7 +3916,7 @@
       <c r="V45" s="8"/>
       <c r="W45" s="42"/>
     </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C46" s="33"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3904,32 +3939,32 @@
       <c r="V46" s="5"/>
       <c r="W46" s="36"/>
     </row>
-    <row r="47" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="33"/>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="70"/>
       <c r="W47" s="36"/>
     </row>
-    <row r="48" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="33"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -3952,7 +3987,7 @@
       <c r="V48" s="27"/>
       <c r="W48" s="36"/>
     </row>
-    <row r="49" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="37"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
@@ -3975,7 +4010,7 @@
       <c r="V49" s="31"/>
       <c r="W49" s="38"/>
     </row>
-    <row r="50" spans="3:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="33"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3998,7 +4033,7 @@
       <c r="V50" s="5"/>
       <c r="W50" s="36"/>
     </row>
-    <row r="51" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="33"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -4021,34 +4056,34 @@
       <c r="V51" s="5"/>
       <c r="W51" s="36"/>
     </row>
-    <row r="52" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C52" s="33"/>
       <c r="D52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="126"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
       <c r="U52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="36"/>
     </row>
-    <row r="53" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="41"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -4071,7 +4106,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="42"/>
     </row>
-    <row r="54" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="37"/>
       <c r="D54" s="6" t="s">
         <v>21</v>
@@ -4096,30 +4131,30 @@
       <c r="V54" s="7"/>
       <c r="W54" s="38"/>
     </row>
-    <row r="55" spans="3:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="113"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="114"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="114"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="115"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="58"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="60"/>
+    </row>
+    <row r="56" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C56" s="33"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -4142,7 +4177,7 @@
       <c r="V56" s="5"/>
       <c r="W56" s="36"/>
     </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C57" s="33"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -4165,7 +4200,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="36"/>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C58" s="33"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -4188,7 +4223,7 @@
       <c r="V58" s="5"/>
       <c r="W58" s="36"/>
     </row>
-    <row r="59" spans="3:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="33"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -4211,36 +4246,36 @@
       <c r="V59" s="13"/>
       <c r="W59" s="36"/>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="33"/>
-      <c r="D60" s="116" t="s">
+      <c r="D60" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="117" t="s">
+      <c r="J60" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="119" t="s">
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="119"/>
-      <c r="S60" s="119"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="119"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
       <c r="W60" s="36"/>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="43"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -4248,13 +4283,13 @@
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
@@ -4263,43 +4298,84 @@
       <c r="V61" s="16"/>
       <c r="W61" s="44"/>
     </row>
-    <row r="62" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="45" t="s">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C62" s="43"/>
+      <c r="W62" s="44"/>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C63" s="43"/>
+      <c r="W63" s="44"/>
+    </row>
+    <row r="64" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="47" t="s">
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="V62" s="47"/>
-      <c r="W62" s="48"/>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="V64" s="47"/>
+      <c r="W64" s="48"/>
+    </row>
+    <row r="65" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H68" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H21:V21"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:V19"/>
+    <mergeCell ref="H17:V17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C2:G5"/>
+    <mergeCell ref="H2:R5"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="D8:V8"/>
+    <mergeCell ref="D9:V9"/>
+    <mergeCell ref="D11:V11"/>
+    <mergeCell ref="H13:V13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D24:V24"/>
+    <mergeCell ref="D26:V28"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:V31"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C55:W55"/>
     <mergeCell ref="D60:H60"/>
@@ -4316,39 +4392,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D24:V24"/>
-    <mergeCell ref="D26:V28"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:V31"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="D8:V8"/>
-    <mergeCell ref="D9:V9"/>
-    <mergeCell ref="D11:V11"/>
-    <mergeCell ref="H13:V13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C2:G5"/>
-    <mergeCell ref="H2:R5"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="H17:V17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4358,24 +4401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Archivos/cuentaOriginal.xlsx
+++ b/src/Archivos/cuentaOriginal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancastellon/Documents/proyecto universidad/cuentasDeCobro/src/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C7AA9-78A8-004F-B5FD-C818858CDCC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B5324-A237-4E4D-A7A3-900E5F9A8323}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>iso2008</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>OCTUBRE 2017</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -725,6 +728,191 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -772,193 +960,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1360,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60:P61"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2717,101 +2720,101 @@
   <sheetData>
     <row r="1" spans="3:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="101" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="109" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
     </row>
     <row r="3" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="112" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="114"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="86"/>
     </row>
     <row r="4" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="115" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="117"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="89"/>
     </row>
     <row r="5" spans="3:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="108"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2837,12 +2840,12 @@
         <v>4</v>
       </c>
       <c r="P6" s="35"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
       <c r="W6" s="36"/>
     </row>
     <row r="7" spans="3:33" ht="16" x14ac:dyDescent="0.2">
@@ -2872,52 +2875,52 @@
     </row>
     <row r="8" spans="3:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="33"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="33"/>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="36"/>
     </row>
     <row r="10" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2945,27 +2948,27 @@
     </row>
     <row r="11" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="33"/>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="36"/>
     </row>
     <row r="12" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2993,27 +2996,27 @@
     </row>
     <row r="13" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="33"/>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="94"/>
       <c r="W13" s="36"/>
     </row>
     <row r="14" spans="3:33" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,17 +3044,17 @@
     </row>
     <row r="15" spans="3:33" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="33"/>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -3101,27 +3104,27 @@
     </row>
     <row r="17" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="33"/>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
       <c r="W17" s="36"/>
     </row>
     <row r="18" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3149,27 +3152,27 @@
     </row>
     <row r="19" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="33"/>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
       <c r="W19" s="36"/>
     </row>
     <row r="20" spans="3:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,27 +3202,27 @@
     </row>
     <row r="21" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="40"/>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="36"/>
     </row>
     <row r="22" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -3247,8 +3250,8 @@
     </row>
     <row r="23" spans="3:23" ht="25" x14ac:dyDescent="0.2">
       <c r="C23" s="33"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3270,25 +3273,25 @@
     </row>
     <row r="24" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="33"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
       <c r="W24" s="36"/>
     </row>
     <row r="25" spans="3:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,71 +3319,71 @@
     </row>
     <row r="26" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="33"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
       <c r="W26" s="36"/>
     </row>
     <row r="27" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="33"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
       <c r="W27" s="36"/>
     </row>
     <row r="28" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="33"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
       <c r="W28" s="36"/>
     </row>
     <row r="29" spans="3:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3435,23 +3438,23 @@
         <v>9</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
       <c r="W31" s="36"/>
     </row>
     <row r="32" spans="3:23" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,10 +3484,10 @@
       <c r="C33" s="33"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="76"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="54" t="s">
         <v>11</v>
       </c>
@@ -3492,17 +3495,17 @@
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
-      <c r="M33" s="80" t="s">
+      <c r="M33" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81" t="s">
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -3522,20 +3525,20 @@
       <c r="C34" s="33"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="105"/>
       <c r="H34" s="26"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="30"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="85"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="108"/>
       <c r="T34" s="21"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
@@ -3555,20 +3558,20 @@
       <c r="C35" s="33"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="105"/>
       <c r="H35" s="28"/>
       <c r="I35" s="20"/>
       <c r="J35" s="51"/>
       <c r="K35" s="20"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="88"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="111"/>
       <c r="T35" s="22"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -3588,20 +3591,20 @@
       <c r="C36" s="33"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="26"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="30"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="76"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="101"/>
       <c r="T36" s="22"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -3621,20 +3624,20 @@
       <c r="C37" s="33"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="28"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="76"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="101"/>
       <c r="T37" s="23"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -3692,10 +3695,10 @@
       <c r="F39" s="52"/>
       <c r="G39" s="5"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="78"/>
+      <c r="J39" s="96"/>
       <c r="K39" s="29"/>
       <c r="L39" s="55" t="s">
         <v>14</v>
@@ -3704,9 +3707,9 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
       <c r="T39" s="30"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -3767,12 +3770,12 @@
       <c r="I41" s="29"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="67"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="123"/>
       <c r="R41" s="30"/>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
@@ -3802,12 +3805,12 @@
       <c r="I42" s="29"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="67"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="123"/>
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
@@ -3837,12 +3840,12 @@
       <c r="I43" s="29"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="67"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="123"/>
       <c r="R43" s="30"/>
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
@@ -3941,27 +3944,27 @@
     </row>
     <row r="47" spans="3:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="33"/>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
       <c r="W47" s="36"/>
     </row>
     <row r="48" spans="3:33" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4063,20 +4066,20 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
       <c r="U52" s="5" t="s">
         <v>20</v>
       </c>
@@ -4132,27 +4135,27 @@
       <c r="W54" s="38"/>
     </row>
     <row r="55" spans="3:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="60"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="115"/>
+      <c r="O55" s="115"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="115"/>
+      <c r="T55" s="115"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
+      <c r="W55" s="116"/>
     </row>
     <row r="56" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C56" s="33"/>
@@ -4248,31 +4251,31 @@
     </row>
     <row r="60" spans="3:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="33"/>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="62" t="s">
+      <c r="J60" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="64" t="s">
+      <c r="K60" s="118"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120"/>
       <c r="W60" s="36"/>
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.2">
@@ -4283,13 +4286,13 @@
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
@@ -4300,6 +4303,9 @@
     </row>
     <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="43"/>
+      <c r="J62" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="W62" s="44"/>
     </row>
     <row r="63" spans="3:23" x14ac:dyDescent="0.2">
@@ -4343,39 +4349,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="H17:V17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C2:G5"/>
-    <mergeCell ref="H2:R5"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="D8:V8"/>
-    <mergeCell ref="D9:V9"/>
-    <mergeCell ref="D11:V11"/>
-    <mergeCell ref="H13:V13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D24:V24"/>
-    <mergeCell ref="D26:V28"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:V31"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C55:W55"/>
     <mergeCell ref="D60:H60"/>
@@ -4392,6 +4365,39 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D24:V24"/>
+    <mergeCell ref="D26:V28"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:V31"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="D8:V8"/>
+    <mergeCell ref="D9:V9"/>
+    <mergeCell ref="D11:V11"/>
+    <mergeCell ref="H13:V13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C2:G5"/>
+    <mergeCell ref="H2:R5"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="H21:V21"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:V19"/>
+    <mergeCell ref="H17:V17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
